--- a/notebooks/IRF1/input/IRF1_IMD117_individuals.xlsx
+++ b/notebooks/IRF1/input/IRF1_IMD117_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/IRF1/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04886C50-4E4A-F740-A7DA-09904696AC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F33B1E-A741-8546-8FFC-C7683E8F069D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17480" yWindow="12100" windowWidth="40320" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1660" yWindow="5520" windowWidth="36080" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="115">
   <si>
     <t>PMID</t>
   </si>
@@ -194,6 +194,177 @@
   </si>
   <si>
     <t>P5Y</t>
+  </si>
+  <si>
+    <t>Decreased proportion of naive CD8 T cells</t>
+  </si>
+  <si>
+    <t>HP:0410377</t>
+  </si>
+  <si>
+    <t>P3Y</t>
+  </si>
+  <si>
+    <t>Decreased proportion of central memory CD8-positive, alpha-beta T cells</t>
+  </si>
+  <si>
+    <t>HP:0410389</t>
+  </si>
+  <si>
+    <t>HP:0040218</t>
+  </si>
+  <si>
+    <t>observed</t>
+  </si>
+  <si>
+    <t>Increased proportion of CD8-positive, alpha-beta TEMRA T cells</t>
+  </si>
+  <si>
+    <t>HP:0500265</t>
+  </si>
+  <si>
+    <t>Fever</t>
+  </si>
+  <si>
+    <t>HP:0001945</t>
+  </si>
+  <si>
+    <t>Lymphadenitis</t>
+  </si>
+  <si>
+    <t>HP:0002840</t>
+  </si>
+  <si>
+    <t>Mediastinal lymphadenopathy</t>
+  </si>
+  <si>
+    <t>HP:0100721</t>
+  </si>
+  <si>
+    <t>Nontuberculous mycobacterial pulmonary infection</t>
+  </si>
+  <si>
+    <t>HP:0032261</t>
+  </si>
+  <si>
+    <t>Positive Mycobacterium avium sputum culture</t>
+  </si>
+  <si>
+    <t>HP:0430108</t>
+  </si>
+  <si>
+    <t>Pneumonia</t>
+  </si>
+  <si>
+    <t>HP:0002090</t>
+  </si>
+  <si>
+    <t>Increased circulating IgA level</t>
+  </si>
+  <si>
+    <t>HP:0003261</t>
+  </si>
+  <si>
+    <t>Sinusitis</t>
+  </si>
+  <si>
+    <t>HP:0000246</t>
+  </si>
+  <si>
+    <t>Pustular rash</t>
+  </si>
+  <si>
+    <t>HP:0033605</t>
+  </si>
+  <si>
+    <t>Thrombocytopenia</t>
+  </si>
+  <si>
+    <t>HP:0001873</t>
+  </si>
+  <si>
+    <t>Anemia</t>
+  </si>
+  <si>
+    <t>HP:0001903</t>
+  </si>
+  <si>
+    <t>Cafe-au-lait spot</t>
+  </si>
+  <si>
+    <t>HP:0000957</t>
+  </si>
+  <si>
+    <t>Axillary lymphadenopathy</t>
+  </si>
+  <si>
+    <t>HP:0034752</t>
+  </si>
+  <si>
+    <t>Clubbing</t>
+  </si>
+  <si>
+    <t>HP:0001217</t>
+  </si>
+  <si>
+    <t>Splenomegaly</t>
+  </si>
+  <si>
+    <t>HP:0001744</t>
+  </si>
+  <si>
+    <t>Hepatomegaly</t>
+  </si>
+  <si>
+    <t>HP:0002240</t>
+  </si>
+  <si>
+    <t>Intestinal malrotation</t>
+  </si>
+  <si>
+    <t>HP:0002566</t>
+  </si>
+  <si>
+    <t>P8M</t>
+  </si>
+  <si>
+    <t>Increased proportion of transitional B cells</t>
+  </si>
+  <si>
+    <t>HP:0030381</t>
+  </si>
+  <si>
+    <t>Increased proportion of effector memory CD8-positive, alpha-beta T cells</t>
+  </si>
+  <si>
+    <t>HP:0410395</t>
+  </si>
+  <si>
+    <t>HP:0005403</t>
+  </si>
+  <si>
+    <t>Diarrhea</t>
+  </si>
+  <si>
+    <t>HP:0002014</t>
+  </si>
+  <si>
+    <t>Leukopenia</t>
+  </si>
+  <si>
+    <t>HP:0001882</t>
+  </si>
+  <si>
+    <t>Disseminated nontuberculous mycobacterial infection</t>
+  </si>
+  <si>
+    <t>HP:0032283</t>
+  </si>
+  <si>
+    <t>Reduced natural killer cell count</t>
+  </si>
+  <si>
+    <t>T lymphocytopenia</t>
   </si>
 </sst>
 </file>
@@ -283,10 +454,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -596,15 +767,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:AX4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="AM1" sqref="AM1:AM1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -674,8 +845,89 @@
       <c r="W1" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="X1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -745,8 +997,89 @@
       <c r="W2" t="s">
         <v>54</v>
       </c>
+      <c r="X2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -802,7 +1135,7 @@
         <v>35</v>
       </c>
       <c r="T3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="U3" t="s">
         <v>49</v>
@@ -813,8 +1146,89 @@
       <c r="W3" t="s">
         <v>52</v>
       </c>
+      <c r="X3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -879,6 +1293,87 @@
         <v>56</v>
       </c>
       <c r="W4" t="s">
+        <v>56</v>
+      </c>
+      <c r="X4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX4" t="s">
         <v>56</v>
       </c>
     </row>
